--- a/Introduction_to_Business_Analytics/Examples/Lecture 8 - Statistical Inference in Excel - Hypotheses Testing.xlsx
+++ b/Introduction_to_Business_Analytics/Examples/Lecture 8 - Statistical Inference in Excel - Hypotheses Testing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hektor\Desktop\Kurser\2024-2025\Uni_2024_2025\Introduction_to_Business_Analytics\Examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hekto\Desktop\Kurser\2024-2025\Introduction_to_Business_Analytics\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A239A0-072B-41EA-A3B3-678FD3E2FCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE684A5B-BB39-4968-AEE6-6F7C4BF4D68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="894" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="894" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HT(lower-tail) sigma known" sheetId="7" r:id="rId1"/>
@@ -1413,7 +1413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="33">
   <si>
     <t>Sample Mean</t>
   </si>
@@ -1501,6 +1501,36 @@
   <si>
     <t xml:space="preserve">σ KNOWN CASE </t>
   </si>
+  <si>
+    <t>calc</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>z a/2</t>
+  </si>
+  <si>
+    <t>stand err</t>
+  </si>
+  <si>
+    <t>neg z a/2</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>P-</t>
+  </si>
+  <si>
+    <t>Calc</t>
+  </si>
+  <si>
+    <t>h0 μ_0 = 0.041</t>
+  </si>
+  <si>
+    <t>h1 μ_1 != 0.041</t>
+  </si>
 </sst>
 </file>
 
@@ -1509,7 +1539,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1618,6 +1648,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1667,7 +1702,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1715,6 +1750,7 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1724,7 +1760,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -4567,16 +4606,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>460087</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>186171</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>307975</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>143453</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>119495</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4591,8 +4630,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9932865" y="4398352"/>
-          <a:ext cx="2074741" cy="929785"/>
+          <a:off x="11171382" y="4203989"/>
+          <a:ext cx="2004003" cy="929120"/>
           <a:chOff x="10645775" y="2886075"/>
           <a:chExt cx="2282825" cy="1031874"/>
         </a:xfrm>
@@ -5205,8 +5244,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11140440" y="2772410"/>
-          <a:ext cx="2053590" cy="923924"/>
+          <a:off x="10788650" y="2794000"/>
+          <a:ext cx="2171700" cy="949324"/>
           <a:chOff x="10645775" y="2886075"/>
           <a:chExt cx="2282825" cy="1031874"/>
         </a:xfrm>
@@ -5839,19 +5878,19 @@
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="11" width="10" style="6" customWidth="1"/>
-    <col min="12" max="12" width="5.77734375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="26.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="26.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="4" customWidth="1"/>
-    <col min="15" max="27" width="9.109375" style="4"/>
-    <col min="28" max="28" width="26.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.109375" style="4"/>
+    <col min="15" max="27" width="9.140625" style="4"/>
+    <col min="28" max="28" width="26.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -5866,7 +5905,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>3.15</v>
       </c>
@@ -5881,7 +5920,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2.76</v>
       </c>
@@ -5896,7 +5935,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3.18</v>
       </c>
@@ -5911,7 +5950,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2.77</v>
       </c>
@@ -5926,7 +5965,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2.86</v>
       </c>
@@ -5941,7 +5980,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2.66</v>
       </c>
@@ -5956,7 +5995,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2.86</v>
       </c>
@@ -5971,7 +6010,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>2.54</v>
       </c>
@@ -5986,7 +6025,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>3.02</v>
       </c>
@@ -6001,7 +6040,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>3.13</v>
       </c>
@@ -6015,16 +6054,16 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="M11" s="19" t="s">
+      <c r="M11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="19"/>
-      <c r="AB11" s="19" t="s">
+      <c r="N11" s="20"/>
+      <c r="AB11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AC11" s="19"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC11" s="20"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2.94</v>
       </c>
@@ -6038,12 +6077,12 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>2.74</v>
       </c>
@@ -6058,7 +6097,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2.84</v>
       </c>
@@ -6086,7 +6125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>2.6</v>
       </c>
@@ -6114,7 +6153,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>2.94</v>
       </c>
@@ -6142,7 +6181,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>2.93</v>
       </c>
@@ -6170,7 +6209,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>3.18</v>
       </c>
@@ -6199,7 +6238,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>2.95</v>
       </c>
@@ -6228,7 +6267,7 @@
         <v>2.9199999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>2.86</v>
       </c>
@@ -6257,7 +6296,7 @@
         <v>-2.6666666666666838</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>2.91</v>
       </c>
@@ -6286,7 +6325,7 @@
         <v>-1.6448536269514726</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>2.96</v>
       </c>
@@ -6315,7 +6354,7 @@
         <v>Reject</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>3.14</v>
       </c>
@@ -6330,7 +6369,7 @@
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>2.65</v>
       </c>
@@ -6343,7 +6382,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>2.77</v>
       </c>
@@ -6357,7 +6396,7 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>2.96</v>
       </c>
@@ -6371,7 +6410,7 @@
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>3.1</v>
       </c>
@@ -6386,7 +6425,7 @@
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>2.82</v>
       </c>
@@ -6400,7 +6439,7 @@
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>3.05</v>
       </c>
@@ -6415,7 +6454,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>2.94</v>
       </c>
@@ -6430,7 +6469,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>2.82</v>
       </c>
@@ -6445,7 +6484,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>3.21</v>
       </c>
@@ -6460,7 +6499,7 @@
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>3.11</v>
       </c>
@@ -6478,7 +6517,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>2.9</v>
       </c>
@@ -6496,7 +6535,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>3.05</v>
       </c>
@@ -6511,7 +6550,7 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>2.93</v>
       </c>
@@ -6527,7 +6566,7 @@
       <c r="K36" s="5"/>
       <c r="U36" s="5"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>2.89</v>
       </c>
@@ -6542,7 +6581,7 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -6578,35 +6617,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="N6:R17"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="89" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="14" max="14" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" customWidth="1"/>
-    <col min="17" max="17" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N6" s="20" t="s">
+    <row r="6" spans="14:18" x14ac:dyDescent="0.2">
+      <c r="N6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="20"/>
-      <c r="Q6" s="20" t="s">
+      <c r="O6" s="21"/>
+      <c r="Q6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="20"/>
-    </row>
-    <row r="7" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-    </row>
-    <row r="9" spans="14:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R6" s="21"/>
+    </row>
+    <row r="7" spans="14:18" x14ac:dyDescent="0.2">
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+    </row>
+    <row r="9" spans="14:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="N9" s="1" t="s">
         <v>4</v>
       </c>
@@ -6621,7 +6660,7 @@
         <v>32.79</v>
       </c>
     </row>
-    <row r="10" spans="14:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="14:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="N10" s="3" t="s">
         <v>2</v>
       </c>
@@ -6636,7 +6675,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="11" spans="14:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="14:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="N11" s="3" t="s">
         <v>8</v>
       </c>
@@ -6651,7 +6690,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="14:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="14:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="N12" s="3" t="s">
         <v>9</v>
       </c>
@@ -6666,7 +6705,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="14:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="14:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="N13" s="3" t="s">
         <v>1</v>
       </c>
@@ -6682,7 +6721,7 @@
         <v>0.79999999999999993</v>
       </c>
     </row>
-    <row r="14" spans="14:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="14:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="N14" s="3" t="s">
         <v>0</v>
       </c>
@@ -6697,7 +6736,7 @@
         <v>30.63</v>
       </c>
     </row>
-    <row r="15" spans="14:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="14:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="N15" s="1" t="s">
         <v>5</v>
       </c>
@@ -6713,7 +6752,7 @@
         <v>-2.7000000000000006</v>
       </c>
     </row>
-    <row r="16" spans="14:18" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="16" spans="14:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="N16" s="1" t="s">
         <v>6</v>
       </c>
@@ -6729,7 +6768,7 @@
         <v>-2.3263478740408408</v>
       </c>
     </row>
-    <row r="17" spans="14:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="14:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="N17" s="1" t="s">
         <v>7</v>
       </c>
@@ -6755,154 +6794,178 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="H11:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="77" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="F8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Y36" sqref="Y36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="4.44140625" customWidth="1"/>
-    <col min="8" max="8" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="8:24" x14ac:dyDescent="0.25">
-      <c r="H11" s="20" t="s">
+    <row r="11" spans="8:24" x14ac:dyDescent="0.2">
+      <c r="H11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="W11" s="20" t="s">
+      <c r="I11" s="21"/>
+      <c r="W11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="X11" s="20"/>
-    </row>
-    <row r="12" spans="8:24" x14ac:dyDescent="0.25">
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-    </row>
-    <row r="14" spans="8:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X11" s="21"/>
+    </row>
+    <row r="12" spans="8:24" x14ac:dyDescent="0.2">
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+    </row>
+    <row r="14" spans="8:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="19">
         <v>24</v>
       </c>
       <c r="W14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="2"/>
-    </row>
-    <row r="15" spans="8:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X14" s="2">
+        <f>I14</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="8:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="19">
         <v>6</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="X15" s="2"/>
-    </row>
-    <row r="16" spans="8:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X15" s="2">
+        <f t="shared" ref="X15:X20" si="0">I15</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="8:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="19">
         <v>0.01</v>
       </c>
       <c r="W16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X16" s="2"/>
-    </row>
-    <row r="17" spans="8:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="8:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="19">
         <v>36</v>
       </c>
       <c r="W17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="X17" s="2"/>
-    </row>
-    <row r="18" spans="8:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X17" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="8:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="19">
         <f>I15/SQRT(I17)</f>
         <v>1</v>
       </c>
       <c r="W18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="X18" s="2"/>
-    </row>
-    <row r="19" spans="8:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X18" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="8:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="19">
         <v>27</v>
       </c>
       <c r="W19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="X19" s="2"/>
-    </row>
-    <row r="20" spans="8:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X19" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="8:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="19">
         <f>(I19-I14)/(I15/SQRT(I17))</f>
         <v>3</v>
       </c>
       <c r="W20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="X20" s="2"/>
-    </row>
-    <row r="21" spans="8:24" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="X20" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="8:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="19">
         <f>1-_xlfn.NORM.S.DIST(I20,TRUE)</f>
         <v>1.3498980316301035E-3</v>
       </c>
       <c r="W21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X21" s="2"/>
-    </row>
-    <row r="22" spans="8:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X21" s="2">
+        <f>_xlfn.NORM.S.INV(1-X16)</f>
+        <v>2.3263478740408408</v>
+      </c>
+    </row>
+    <row r="22" spans="8:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="22" t="str">
+      <c r="I22" s="19" t="str">
         <f>IF(I21&lt;=I16,"Reject","Fail to Reject")</f>
         <v>Reject</v>
       </c>
       <c r="W22" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="X22" s="2"/>
-    </row>
-    <row r="23" spans="8:24" x14ac:dyDescent="0.25">
-      <c r="I23" s="23"/>
-    </row>
-    <row r="37" spans="16:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X22" s="2" t="str">
+        <f>IF(X20&gt;=X21,"REJECT","FAIL")</f>
+        <v>REJECT</v>
+      </c>
+    </row>
+    <row r="37" spans="16:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P37" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="16:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="16:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P38" s="5" t="s">
         <v>22</v>
       </c>
@@ -6929,123 +6992,172 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="N6:R17"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView topLeftCell="J1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="14" max="14" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" customWidth="1"/>
-    <col min="17" max="17" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N6" s="20" t="s">
+    <row r="6" spans="14:18" x14ac:dyDescent="0.2">
+      <c r="N6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="20"/>
-      <c r="Q6" s="20" t="s">
+      <c r="O6" s="21"/>
+      <c r="Q6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="20"/>
-    </row>
-    <row r="7" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-    </row>
-    <row r="9" spans="14:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R6" s="21"/>
+    </row>
+    <row r="7" spans="14:18" x14ac:dyDescent="0.2">
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+    </row>
+    <row r="9" spans="14:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="N9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="2"/>
+      <c r="O9" s="2">
+        <v>119155</v>
+      </c>
       <c r="Q9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="14:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R9" s="2">
+        <f>O9</f>
+        <v>119155</v>
+      </c>
+    </row>
+    <row r="10" spans="14:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="N10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O10" s="2"/>
+      <c r="O10" s="2">
+        <v>20700</v>
+      </c>
       <c r="Q10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="14:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R10" s="2">
+        <f t="shared" ref="R10:R15" si="0">O10</f>
+        <v>20700</v>
+      </c>
+    </row>
+    <row r="11" spans="14:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="N11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O11" s="2"/>
+      <c r="O11" s="19">
+        <v>0.01</v>
+      </c>
       <c r="Q11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="14:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="14:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="N12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O12" s="2"/>
+      <c r="O12" s="2">
+        <v>64</v>
+      </c>
       <c r="Q12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R12" s="2"/>
-    </row>
-    <row r="13" spans="14:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R12" s="2">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="14:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="N13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="O13" s="2"/>
+      <c r="O13" s="2">
+        <f>O10/SQRT(O12)</f>
+        <v>2587.5</v>
+      </c>
       <c r="Q13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="14:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R13" s="2">
+        <f t="shared" si="0"/>
+        <v>2587.5</v>
+      </c>
+    </row>
+    <row r="14" spans="14:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="N14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O14" s="2"/>
+      <c r="O14" s="2">
+        <v>126100</v>
+      </c>
       <c r="Q14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="14:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R14" s="2">
+        <f t="shared" si="0"/>
+        <v>126100</v>
+      </c>
+    </row>
+    <row r="15" spans="14:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="N15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O15" s="2"/>
+      <c r="O15" s="2">
+        <f>(O14-O9)/(O13)</f>
+        <v>2.6840579710144929</v>
+      </c>
       <c r="Q15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="R15" s="2"/>
-    </row>
-    <row r="16" spans="14:18" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="R15" s="2">
+        <f t="shared" si="0"/>
+        <v>2.6840579710144929</v>
+      </c>
+    </row>
+    <row r="16" spans="14:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="N16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O16" s="2"/>
+      <c r="O16" s="2">
+        <f>1-_xlfn.NORM.S.DIST(O15,TRUE)</f>
+        <v>3.6367246611685999E-3</v>
+      </c>
       <c r="Q16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="R16" s="2"/>
-    </row>
-    <row r="17" spans="14:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R16" s="2">
+        <f>_xlfn.NORM.S.INV(1-R11)</f>
+        <v>2.3263478740408408</v>
+      </c>
+    </row>
+    <row r="17" spans="14:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="N17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O17" s="2"/>
+      <c r="O17" s="2" t="str">
+        <f>IF(O16&lt;=O11,"REJECT","FAIL")</f>
+        <v>REJECT</v>
+      </c>
       <c r="Q17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="R17" s="2"/>
+      <c r="R17" s="2" t="str">
+        <f>IF(R16&lt;=R15,"REJECT","FAIL")</f>
+        <v>REJECT</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7061,125 +7173,192 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="K11:X28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="9" width="9.109375"/>
-    <col min="11" max="11" width="31.44140625" customWidth="1"/>
+    <col min="7" max="9" width="9.140625"/>
+    <col min="11" max="11" width="31.42578125" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="11:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="11:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W11" s="11"/>
       <c r="X11" s="11"/>
     </row>
-    <row r="12" spans="11:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="11:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
     </row>
-    <row r="14" spans="11:24" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K14" s="21" t="s">
+    <row r="14" spans="11:24" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K14" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-    </row>
-    <row r="15" spans="11:24" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+    </row>
+    <row r="15" spans="11:24" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
       <c r="N15" s="16"/>
     </row>
-    <row r="16" spans="11:24" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="16" spans="11:24" ht="20.25" x14ac:dyDescent="0.25">
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
     </row>
-    <row r="17" spans="11:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="11:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L17" s="17"/>
+      <c r="L17" s="17">
+        <v>295</v>
+      </c>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
-    </row>
-    <row r="18" spans="11:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R17" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="11:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L18" s="13"/>
+      <c r="L18" s="24">
+        <v>0.05</v>
+      </c>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
-    </row>
-    <row r="19" spans="11:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Q18" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="R18">
+        <f>(L21-L17)/(L19/SQRT(L20))</f>
+        <v>1.5320646925708663</v>
+      </c>
+    </row>
+    <row r="19" spans="11:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L19" s="13"/>
+      <c r="L19" s="13">
+        <v>12</v>
+      </c>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
-    </row>
-    <row r="20" spans="11:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Q19" s="23"/>
+    </row>
+    <row r="20" spans="11:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="13"/>
+      <c r="L20" s="13">
+        <v>50</v>
+      </c>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
-    </row>
-    <row r="21" spans="11:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Q20" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="R20">
+        <f>L19/SQRT(L20)</f>
+        <v>1.697056274847714</v>
+      </c>
+    </row>
+    <row r="21" spans="11:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L21" s="13"/>
+      <c r="L21" s="13">
+        <v>297.60000000000002</v>
+      </c>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
-    </row>
-    <row r="22" spans="11:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Q21" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="R21">
+        <v>-1.96</v>
+      </c>
+      <c r="S21" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="T21" s="25">
+        <f>L18/2</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="11:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K22" s="1"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
-    </row>
-    <row r="23" spans="11:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Q22" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="R22">
+        <v>1.96</v>
+      </c>
+      <c r="S22" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="T22" s="23">
+        <f>1-T21</f>
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="11:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K23" s="1"/>
       <c r="N23" s="12"/>
     </row>
-    <row r="24" spans="11:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="11:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K24" s="1"/>
       <c r="L24" s="12"/>
       <c r="N24" s="12"/>
     </row>
-    <row r="25" spans="11:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="11:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L25" s="14"/>
+      <c r="L25" s="14">
+        <f>R22*R20</f>
+        <v>3.3262302987015193</v>
+      </c>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="11:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="11:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="14"/>
+      <c r="L26" s="14">
+        <f>L21-L25</f>
+        <v>294.27376970129848</v>
+      </c>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
     </row>
-    <row r="27" spans="11:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="11:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L27" s="14"/>
-    </row>
-    <row r="28" spans="11:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L27" s="14">
+        <f>L21+L25</f>
+        <v>300.92623029870157</v>
+      </c>
+    </row>
+    <row r="28" spans="11:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L28" s="14"/>
+      <c r="L28" s="14" t="str">
+        <f>IF(OR(L17&gt;=L27,L17&lt;=L26),"Reject","fail")</f>
+        <v>fail</v>
+      </c>
       <c r="N28" s="12"/>
     </row>
   </sheetData>
@@ -7195,108 +7374,152 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="N5:P19"/>
+  <dimension ref="N5:U19"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="14" max="14" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" customWidth="1"/>
-    <col min="17" max="17" width="8.6640625" customWidth="1"/>
-    <col min="18" max="18" width="12" customWidth="1"/>
+    <col min="14" max="14" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="14:16" x14ac:dyDescent="0.25">
-      <c r="N5" s="21" t="s">
+    <row r="5" spans="14:21" x14ac:dyDescent="0.2">
+      <c r="N5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-    </row>
-    <row r="6" spans="14:16" x14ac:dyDescent="0.25">
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-    </row>
-    <row r="7" spans="14:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="R5" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="14:21" x14ac:dyDescent="0.2">
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="R6" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="14:21" ht="20.25" x14ac:dyDescent="0.25">
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
       <c r="P7" s="12"/>
-    </row>
-    <row r="8" spans="14:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S7" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="14:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="N8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="17"/>
+      <c r="O8" s="17">
+        <v>4.1000000000000002E-2</v>
+      </c>
       <c r="P8" s="12"/>
-    </row>
-    <row r="9" spans="14:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R8" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="S8">
+        <f>O9/2</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="T8" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="U8">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="9" spans="14:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="N9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O9" s="13"/>
+      <c r="O9" s="13">
+        <v>0.05</v>
+      </c>
       <c r="P9" s="12"/>
     </row>
-    <row r="10" spans="14:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="14:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="N10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O10" s="13"/>
+      <c r="O10" s="13">
+        <v>0.02</v>
+      </c>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="14:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="14:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="N11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O11" s="13"/>
+      <c r="O11" s="13">
+        <v>36</v>
+      </c>
       <c r="P11" s="12"/>
     </row>
-    <row r="12" spans="14:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="14:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="N12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O12" s="13"/>
+      <c r="O12" s="13">
+        <v>3.4000000000000002E-2</v>
+      </c>
       <c r="P12" s="12"/>
     </row>
-    <row r="13" spans="14:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="14:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="N13" s="1"/>
       <c r="P13" s="12"/>
     </row>
-    <row r="14" spans="14:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="14:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="14:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="14:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="N15" s="1"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="14:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="14:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="N16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O16" s="18"/>
+      <c r="O16" s="18">
+        <f>U8*(O10/SQRT(O11))</f>
+        <v>6.5333333333333337E-3</v>
+      </c>
       <c r="P16" s="12"/>
     </row>
-    <row r="17" spans="14:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="14:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="N17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O17" s="18"/>
+      <c r="O17" s="18">
+        <f>O12-U8*(O10/SQRT(O11))</f>
+        <v>2.7466666666666667E-2</v>
+      </c>
       <c r="P17" s="12"/>
     </row>
-    <row r="18" spans="14:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="14:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="N18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O18" s="18"/>
-    </row>
-    <row r="19" spans="14:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O18" s="18">
+        <f>O12+U8*(O10/SQRT(O11))</f>
+        <v>4.0533333333333338E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="14:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="N19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O19" s="14"/>
+      <c r="O19" s="14" t="str">
+        <f>IF(OR(O8&lt;=O17,O8&gt;=O18),"reject","fail reject")</f>
+        <v>reject</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
